--- a/balaji.xlsx
+++ b/balaji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d92207b3e3b307/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{832AED2C-BDD7-460D-807E-AE043BA9C2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C981C1B2-9363-400B-9124-B813710D3ABB}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{D8403EF3-F849-4F97-8AC4-9DDAE40AFFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791D4F79-7AEC-47BD-BE29-C4DD393AA016}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA550835-A2D5-47A0-8973-EDE45623BAF7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>C Programming:</t>
   </si>
@@ -171,6 +171,489 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
+      <t>if,ifelse,elseif:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                          1.in my embedded task (dc motor controlled by user input)                              2.sorting technique                                 3.finding vowels                             4.conversion of upper case into lower case                              5.Finding Anagram or not                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Loops:                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.in my embedded task.while(1)&gt;my program continuously running and also for the menu option i used do while                                             2.pattern                                           3.armstrongnumber,primenumber,sumofall digits,reverse ofdigits,perfect number                                           4.sorting technique                                            5. Finding Anagram or not                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">switch  case:         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                               1.in datastructure                                            2,in my embedded task </t>
+    </r>
+  </si>
+  <si>
+    <t>Array allocate memory in contigous memory locations for all its element .hence there is no chance of extra memory being allocated in the case of arrays.this avoid memory overflow or shortage of memory in arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array:  it is collection of similar datatypes elements stored in contigious memory location                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is collection of character ended with null character('\0') </t>
+  </si>
+  <si>
+    <t>strings is to store text, like words and sentences.</t>
+  </si>
+  <si>
+    <t>1.dynamic memory allocation                            2.printing binary of float values                          3.in my embedded task I passed array of phone number which accessed by pointers   4.user defined function like(strcpy,strlen,strchr,strcmp,strstr....etc) 5.call by reference and data structures</t>
+  </si>
+  <si>
+    <t>function designed for perform a specific task.dividing a big task into small task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is block of code which only runs when it is called. It as two parts one is argument and another is return type.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.user defined function like(strcpy,strlen,strchr,strcmp,strstr....etc) 2.call by value and call by reference                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointers save memory space. Execution time with pointers is faster because data are manipulated with the address, that is, direct access to memory location. Memory is accessed efficiently with the pointers. </t>
+  </si>
+  <si>
+    <t>its all are about variable and function scope,life,memory,default value</t>
+  </si>
+  <si>
+    <t>microcontroller only used in embedded system because microprocessor cost is high it increase cost of projects , hardware complexity ,and program complexity also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A microcontroller is a small and low-cost microcomputer, which is designed to perform the specific tasks of embedded systems </t>
+  </si>
+  <si>
+    <t>GPIO(general purpose input output pins): It’s a standard interface used to connect microcontrollers to other electronic devices. For example, it can be used with sensors, diodes, displays, and System-on-Chip modules pins):    GPIOs have no predefined purpose and are unused by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO pins used to  interface microcontrollers to other electronic devices. </t>
+  </si>
+  <si>
+    <t>Algorithmic thinking allows  to break down problems and conceptualize solutions in terms of discrete steps</t>
+  </si>
+  <si>
+    <t>An algorithm is a set of step-by-step procedures, or a set of rules to follow, for completing a specific task or solving a particular problem.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[decision making]:its  for  condition checking purpose.       [loops ]:its for iterative purpose.                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[switch case]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:To perform a multiway branch operations having multiples expressions we may use multiple if...else…if statements when operations to be performed on only one condition. To do similar task in easier manner switch case statement may be used. Switch case do this kind of
+executions more efficiently than repeated if...else if statements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>why structure:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In array we can store same data type in contigious memory allocation but in structure we can store different data types in contigious memory allocation and also it help to organizing complex data in a manner way.                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>why union:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    unions are used to save memory. To better understand an union, think of it as a chunk of memory that is used to store variables of different types. When we want to assign a new value to a field, then the existing data is replaced with new data.C unions allow data members which are mutually exclusive to share the same memory. This is quite important when memory is valuable, such as in embedded systems. Unions are mostly used in embedded programming
+where direct access to the memory is needed.                                                                    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>structure:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">structure is a collection of different data types,which are stored in contigious memory.                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Structure padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Allocation of extra bytes of memory to the structure member known as structure padding.it is compiler dependent. compiler makes this alignment of members for faster access by minimizing number of read cycle.                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">structure padding solution: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#pragma method , proper arragement of structure members , bitfield method               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>union :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Union is an user defined datatype in C programming language.It is a collection of variables of different datatypes in the same memory location.
+We can define a union with many members, but at a given point of time only one member can contain a value.Unions can be very handy when you need to talk to peripherals through some memory mapped registers.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.student records                                                  2.passing structure to function in call by value.                                                                         3.passing structure to function in call by reference.                                                                 4.#pragma method to eliminate structure padding.                                                                    5.bitfield  method to eliminate structure padding.                                                                    6.using union to print binary value of float    7.using union to find little endian or big endian                                                                       8.union with structure and structure under union. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre-processor directives:its for code replacement,instead of function wecan use this,it’s a faster access compared to function  .                                                                                           Typedef: In structure creating structure variable for every time we have to give struct keyword &amp; tagname,instead of this we have to use typedef to give another name for whole structure.its give alias name to existing data type</t>
+  </si>
+  <si>
+    <t>Preprocessor directives: its divide into following categories                                                                             1,File inclusion(include the header files)                2,macro substitution (macro will be replaced with macro body)                                                                                3,conditional inclusion (conditional compilation                4,remove the comments                                                           macro :it’s a single line code it can be executed where it used                                                                                  typedef: its is alias name for existing datatype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.bit manipulation through macro                       2,swap two numbers using macro                       3,which is big num using ternary operator in macro                                                          4,execute particular code  using conditiional compilation                                                              5,using typedef in structure                            </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>why function pointer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   This allows for  dynamic programs that will call different functions in different circumstances dynamically based on which ever function the pointer is pointing to at that time.                                                        Instead of switch case or if else ,we can use function pointer. compared to switch case or if else, function pointer is very less code and more faster . </t>
+    </r>
+  </si>
+  <si>
+    <t>1.call back function using fun.pointer                                           2.calculator program using fun.pointer         3.arithmetic operation using fun .pointer    4.array of fun.pointer                                       5.using typedef in fun.pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pointers: it is used to store address of another variable using address possible to access the data                                 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">storage classes define scope,lifetime,memory location,default value of memory .based on these it has 4 types static,extern,auto,register .                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.Auto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: the scope of variable is within a function and life  is within a function.                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.local static :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the scope of variable is within a function and life is through out the program                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.global static:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the scope of variable is within a file and life is through out the program                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.Extern :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the scope of variable is with in a file and another file also  and life is through out the program          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.Register :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the scope of variable is within a function and life  is within a function.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Analyse on lncrement of local and static variable on the function                                    2.In my embedded  project all function declaration declared as  extern ,  stored in header file  and used it in main.                       </t>
+  </si>
+  <si>
+    <t>when we want particular bit or bytes of data that time we use  bit wise operation.                                                                          When we want to store particular bit or byte of different data type that time we use bitfield operation.</t>
+  </si>
+  <si>
+    <t>setbit ,clear bit ,toggle bit, extraction of bit from particular position,e extraction of bit of data replace with other data,extraction of bit from startiing position                             bitfield:allocation of different datatypes analysed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitfield operation :Bit fields can be used to reduce memory consumption when a program requires a number of integer variables which always will have low values.                                                                                           bitwise operation: using bitwise operator we perform bitwise operation like setbit,clearbit,togglebit,extraction of bits                                                                                           </t>
+  </si>
+  <si>
+    <t>1.string conversion                                                2.remove duplicate character in string            3.reverse string                                                    4.atoi conversion of string                               5."33+43+9"-&gt;this string converted into number and perform arithmatic operation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A function pointer is a variable that stores the address of a function.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                               In linux:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Thread creation ,Library runtime linking,  signal handling .                                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:. call back code/function.     </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.in my embedded task I stored user phone number in array and store it into eeprom                      2.sorting technique(bubble,selection sort..etc)                                                                   3.matrix addition,multiplication                        4.delete duplicate elements                              </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
       <t>if</t>
     </r>
     <r>
@@ -261,7 +744,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: it initialize variable,check condition if it is true go to statement after that variable get increment or dectrement or nothing action also again check  condition until condition false like that iterating happened.                 </t>
+      <t xml:space="preserve">: it initialize variable,check condition if it is true go to statement after that variable get increment or dectrement or nothing action also again check  condition until condition false like that iterating happened.                                                                        </t>
     </r>
     <r>
       <rPr>
@@ -281,155 +764,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: based on user input ,that statement only executed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>if,ifelse,elseif:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                          1.in my embedded task (dc motor controlled by user input)                              2.sorting technique                                 3.finding vowels                             4.conversion of upper case into lower case                              5.Finding Anagram or not                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Loops:                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1.in my embedded task.while(1)&gt;my program continuously running and also for the menu option i used do while                                             2.pattern                                           3.armstrongnumber,primenumber,sumofall digits,reverse ofdigits,perfect number                                           4.sorting technique                                            5. Finding Anagram or not                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">switch  case:         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                               1.in datastructure                                            2,in my embedded task </t>
-    </r>
-  </si>
-  <si>
-    <t>1.in my embedded task I stored user phone number in array and store it into eeprom                      2.sorting technique(bubble,selection sort..etc)                                                                   3.matrix addition,multiplication                        4.delete duplicate elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[decision making]:its  for  condition checking purpose.       [loops ]:its for iterative purpose.                                   [switch case]:its for switching  control      </t>
-  </si>
-  <si>
-    <t>Array allocate memory in contigous memory locations for all its element .hence there is no chance of extra memory being allocated in the case of arrays.this avoid memory overflow or shortage of memory in arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array:  it is collection of similar datatypes elements stored in contigious memory location                                                                                         </t>
-  </si>
-  <si>
-    <t>pointers: it is used to store address of another variable using address possible to access the data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is collection of character ended with null character('\0') </t>
-  </si>
-  <si>
-    <t>strings is to store text, like words and sentences.</t>
-  </si>
-  <si>
-    <t>1.dynamic memory allocation                            2.printing binary of float values                          3.in my embedded task I passed array of phone number which accessed by pointers   4.user defined function like(strcpy,strlen,strchr,strcmp,strstr....etc) 5.call by reference and data structures</t>
-  </si>
-  <si>
-    <t>function designed for perform a specific task.dividing a big task into small task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is block of code which only runs when it is called. It as two parts one is argument and another is return type.      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.string conversion                                                2.remove duplicate character in string            3.reverse string                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.user defined function like(strcpy,strlen,strchr,strcmp,strstr....etc) 2.call by value and call by reference                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pointers save memory space. Execution time with pointers is faster because data are manipulated with the address, that is, direct access to memory location. Memory is accessed efficiently with the pointers. </t>
-  </si>
-  <si>
-    <t>structure is a collection of different data types,which are stored in contigious memory</t>
-  </si>
-  <si>
-    <t>structure: its for to store  different type into single type         union: in all members will share common memory</t>
-  </si>
-  <si>
-    <t>1.student records                                                  2.</t>
-  </si>
-  <si>
-    <t>its all are about variable and function scope,life,memory,default value</t>
-  </si>
-  <si>
-    <t>storage classes define scope,lifetime,memory location,default value of memory .based on these it has 4 types static,extern,auto,register</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre-processor directives:           its for code replacement,instead of function wecan use this,it’s a faster access compared to function  .                              Typedef: its for give another name  to existing data types</t>
-  </si>
-  <si>
-    <t>pre-processor stage:    in this stage code replacement will be happen .                                                                               Preprocessor directives: macro :it’s a single line code it can be executed where it used                                                     typedef: its is alias name for existing datatype</t>
-  </si>
-  <si>
-    <t>microcontroller only used in embedded system because microprocessor cost is high it increase cost of projects , hardware complexity ,and program complexity also</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A microcontroller is a small and low-cost microcomputer, which is designed to perform the specific tasks of embedded systems </t>
-  </si>
-  <si>
-    <t>GPIO(general purpose input output pins): It’s a standard interface used to connect microcontrollers to other electronic devices. For example, it can be used with sensors, diodes, displays, and System-on-Chip modules pins):    GPIOs have no predefined purpose and are unused by default.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIO pins used to  interface microcontrollers to other electronic devices. </t>
-  </si>
-  <si>
-    <t>Algorithmic thinking allows  to break down problems and conceptualize solutions in terms of discrete steps</t>
-  </si>
-  <si>
-    <t>An algorithm is a set of step-by-step procedures, or a set of rules to follow, for completing a specific task or solving a particular problem.</t>
+      <t>: The objective of a switch statement is to give an expression to evaluate and several different
+statements to execute based on the value of the expression. The system checks each case against the value of the expression until a match is found. If nothing matches,a default condition will be used..</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +811,22 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,7 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -580,20 +944,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,6 +1004,34 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -930,16 +1334,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB1336-DA1B-4FB4-9838-B5D8F09586B4}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="3"/>
-    <col min="3" max="3" width="1.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="1.7265625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="42.54296875" style="4" customWidth="1"/>
     <col min="6" max="6" width="33" style="4" customWidth="1"/>
     <col min="7" max="9" width="9.1796875" style="5"/>
@@ -947,12 +1351,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="65" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -971,351 +1375,375 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="254.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="290.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="104" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="104" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="91" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="39" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="91" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>56</v>
+      <c r="C5" s="21"/>
+      <c r="D5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="91" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="52" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="221" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>2</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="169" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="104" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="130" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="91" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="12">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>0</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>0</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>2</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="18">
         <v>3</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>67</v>
+      <c r="C19" s="21"/>
+      <c r="D19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>68</v>
+      <c r="C20" s="21"/>
+      <c r="D20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>0</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>0</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>0</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>0</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>0</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" ht="52" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="12">
         <v>3</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>71</v>
+      <c r="C28" s="21"/>
+      <c r="D28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>0</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>0</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -1324,7 +1752,7 @@
       <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -1333,7 +1761,7 @@
       <c r="B33" s="9">
         <v>0</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -1342,7 +1770,7 @@
       <c r="B34" s="9">
         <v>1</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -1351,7 +1779,7 @@
       <c r="B35" s="9">
         <v>2</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -1360,7 +1788,7 @@
       <c r="B36" s="9">
         <v>3</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -1369,7 +1797,7 @@
       <c r="B37" s="9">
         <v>4</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1391,8 +1819,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="66.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">

--- a/balaji.xlsx
+++ b/balaji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d92207b3e3b307/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{D8403EF3-F849-4F97-8AC4-9DDAE40AFFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791D4F79-7AEC-47BD-BE29-C4DD393AA016}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{D8403EF3-F849-4F97-8AC4-9DDAE40AFFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1583101-6E54-46AB-B775-CD89692D922D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA550835-A2D5-47A0-8973-EDE45623BAF7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>C Programming:</t>
   </si>
@@ -767,13 +767,31 @@
       <t>: The objective of a switch statement is to give an expression to evaluate and several different
 statements to execute based on the value of the expression. The system checks each case against the value of the expression until a match is found. If nothing matches,a default condition will be used..</t>
     </r>
+  </si>
+  <si>
+    <t>MISRA C refers to a set of coding guidelines for the C programming language established by the Motor Industry Software Reliability Association (MISRA). These guidelines aim to improve the safety, security, and reliability of embedded software in various industries, including automotive, aerospace, medical devices, and other safety-critical systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These guidelines aim to improve the safety, security, and reliability of embedded software in various industries, </t>
+  </si>
+  <si>
+    <t>The goal of static code analysis is to identify potential defects, vulnerabilities, coding errors, and non-compliance with coding standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static code analysis is a software testing technique that involves analyzing source code without executing itThis analysis is performed by specialized tools that examine the code's syntax, structure, and potential issues without actually running the program. </t>
+  </si>
+  <si>
+    <t>The main purpose of unit testing is to ensure that each unit of code functions correctly and produces the expected outputs for given inputs.</t>
+  </si>
+  <si>
+    <t>Unit testing is a fundamental practice in software development where individual components, or "units," of a software application are tested in isolation. These units are typically the smallest testable parts of the code, such as functions, methods, or classes. The main purpose of unit testing is to ensure that each unit of code functions correctly and produces the expected outputs for given inputs.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,6 +842,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -923,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -986,6 +1009,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,6 +1058,14 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1334,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB1336-DA1B-4FB4-9838-B5D8F09586B4}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1667,32 +1701,50 @@
       </c>
       <c r="C22" s="21"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" ht="91" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
+      <c r="B23" s="12">
+        <v>1</v>
       </c>
       <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="D23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10">
-        <v>0</v>
+      <c r="B24" s="12">
+        <v>1</v>
       </c>
       <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="D24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="104" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
-        <v>0</v>
+      <c r="B25" s="12">
+        <v>1</v>
       </c>
       <c r="C25" s="21"/>
+      <c r="D25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
